--- a/data/rbfm_final.xlsx
+++ b/data/rbfm_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>param1</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>ebc_avg</t>
+  </si>
+  <si>
+    <t>ebc_sd</t>
+  </si>
+  <si>
+    <t>ebc_max</t>
+  </si>
+  <si>
+    <t>ebc_min</t>
+  </si>
+  <si>
+    <t>hub_repulsion_mod</t>
   </si>
   <si>
     <t>1.0_1.0_0.0</t>
@@ -632,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +726,23 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -786,10 +816,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="Z2">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AA2">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="AB2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC2">
+        <v>0.5</v>
+      </c>
+      <c r="AD2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -863,10 +908,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="Y3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AA3">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="AB3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC3">
+        <v>0.5</v>
+      </c>
+      <c r="AD3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -940,10 +1000,25 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="Y4" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AA4">
+        <v>0.0962250448649376</v>
+      </c>
+      <c r="AB4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1017,10 +1092,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="Y5" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="Z5">
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="AA5">
+        <v>0.09532594144509224</v>
+      </c>
+      <c r="AB5">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AC5">
+        <v>0.004329004329004329</v>
+      </c>
+      <c r="AD5">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1094,10 +1184,25 @@
         <v>0.2352092352092352</v>
       </c>
       <c r="Y6" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="Z6">
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="AA6">
+        <v>0.09532594144509224</v>
+      </c>
+      <c r="AB6">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AC6">
+        <v>0.004329004329004329</v>
+      </c>
+      <c r="AD6">
+        <v>0.2333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1171,10 +1276,25 @@
         <v>0.5209235209235209</v>
       </c>
       <c r="Y7" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="Z7">
+        <v>0.1387163561076604</v>
+      </c>
+      <c r="AA7">
+        <v>0.1533340992062489</v>
+      </c>
+      <c r="AB7">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="AC7">
+        <v>0.004329004329004329</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1248,10 +1368,25 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="Y8" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="Z8">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="AA8">
+        <v>0.1781741612749496</v>
+      </c>
+      <c r="AB8">
+        <v>0.6</v>
+      </c>
+      <c r="AC8">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AD8">
+        <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:30">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1325,10 +1460,25 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="Y9" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="Z9">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="AA9">
+        <v>0.1781741612749496</v>
+      </c>
+      <c r="AB9">
+        <v>0.6</v>
+      </c>
+      <c r="AC9">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AD9">
+        <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:30">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1402,10 +1552,25 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="Z10">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="AA10">
+        <v>0.1781741612749496</v>
+      </c>
+      <c r="AB10">
+        <v>0.6</v>
+      </c>
+      <c r="AC10">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="AD10">
+        <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:30">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1479,10 +1644,25 @@
         <v>0.1637630662020906</v>
       </c>
       <c r="Y11" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="Z11">
+        <v>0.05615428247305729</v>
+      </c>
+      <c r="AA11">
+        <v>0.07188290463852393</v>
+      </c>
+      <c r="AB11">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AC11">
+        <v>0.00116144018583043</v>
+      </c>
+      <c r="AD11">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1556,10 +1736,25 @@
         <v>0.3954703832752614</v>
       </c>
       <c r="Y12" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="Z12">
+        <v>0.07770845150311968</v>
+      </c>
+      <c r="AA12">
+        <v>0.1205866793314369</v>
+      </c>
+      <c r="AB12">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AC12">
+        <v>0.00116144018583043</v>
+      </c>
+      <c r="AD12">
+        <v>0.1666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1633,10 +1828,25 @@
         <v>0.3954703832752614</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="Z13">
+        <v>0.07770845150311968</v>
+      </c>
+      <c r="AA13">
+        <v>0.1205866793314369</v>
+      </c>
+      <c r="AB13">
+        <v>0.5121951219512195</v>
+      </c>
+      <c r="AC13">
+        <v>0.00116144018583043</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1710,10 +1920,25 @@
         <v>0.4107142857142857</v>
       </c>
       <c r="Y14" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="Z14">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AA14">
+        <v>0.1554472006809595</v>
+      </c>
+      <c r="AB14">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC14">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AD14">
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1787,10 +2012,25 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="Y15" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="Z15">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="AA15">
+        <v>0.1865290430475285</v>
+      </c>
+      <c r="AB15">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC15">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AD15">
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1864,10 +2104,25 @@
         <v>0.5535714285714286</v>
       </c>
       <c r="Y16" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="Z16">
+        <v>0.2698412698412698</v>
+      </c>
+      <c r="AA16">
+        <v>0.1865290430475285</v>
+      </c>
+      <c r="AB16">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC16">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="AD16">
+        <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1941,10 +2196,25 @@
         <v>0.3560606060606061</v>
       </c>
       <c r="Y17" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="Z17">
+        <v>0.1678321678321678</v>
+      </c>
+      <c r="AA17">
+        <v>0.1259280727012175</v>
+      </c>
+      <c r="AB17">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC17">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="AD17">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2018,10 +2288,25 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="Y18" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="Z18">
+        <v>0.2097902097902098</v>
+      </c>
+      <c r="AA18">
+        <v>0.1532534319214591</v>
+      </c>
+      <c r="AB18">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC18">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="AD18">
+        <v>0.3333333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:30">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2095,10 +2380,25 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="Y19" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="Z19">
+        <v>0.2237762237762238</v>
+      </c>
+      <c r="AA19">
+        <v>0.1853769815098848</v>
+      </c>
+      <c r="AB19">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AC19">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2172,10 +2472,25 @@
         <v>0.08894250769614777</v>
       </c>
       <c r="Y20" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="Z20">
+        <v>0.02393540324906277</v>
+      </c>
+      <c r="AA20">
+        <v>0.04793607503008387</v>
+      </c>
+      <c r="AB20">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="AC20">
+        <v>0.0001941370607649</v>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:30">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2249,10 +2564,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="Z21">
+        <v>0.03335576276074209</v>
+      </c>
+      <c r="AA21">
+        <v>0.08210359561608575</v>
+      </c>
+      <c r="AB21">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="AC21">
+        <v>0.0001941370607649</v>
+      </c>
+      <c r="AD21">
+        <v>0.2333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2326,10 +2656,25 @@
         <v>0.2275563690822864</v>
       </c>
       <c r="Y22" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="Z22">
+        <v>0.03335576276074209</v>
+      </c>
+      <c r="AA22">
+        <v>0.08210359561608575</v>
+      </c>
+      <c r="AB22">
+        <v>0.504950495049505</v>
+      </c>
+      <c r="AC22">
+        <v>0.0001941370607649</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:30">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2400,10 +2745,25 @@
         <v>0.4555555555555556</v>
       </c>
       <c r="Y23" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="Z23">
+        <v>0.2740740740740741</v>
+      </c>
+      <c r="AA23">
+        <v>0.125215862995385</v>
+      </c>
+      <c r="AB23">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AC23">
+        <v>0.2</v>
+      </c>
+      <c r="AD23">
+        <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2474,10 +2834,25 @@
         <v>0.5111111111111111</v>
       </c>
       <c r="Y24" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="Z24">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="AA24">
+        <v>0.1401057801435388</v>
+      </c>
+      <c r="AB24">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AC24">
+        <v>0.2</v>
+      </c>
+      <c r="AD24">
+        <v>0.1666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:30">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2548,10 +2923,25 @@
         <v>0.5444444444444445</v>
       </c>
       <c r="Y25" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="Z25">
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="AA25">
+        <v>0.1378852627332317</v>
+      </c>
+      <c r="AB25">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="AC25">
+        <v>0.2</v>
+      </c>
+      <c r="AD25">
+        <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2625,10 +3015,25 @@
         <v>0.07099323800568613</v>
       </c>
       <c r="Y26" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="Z26">
+        <v>0.00787225391701072</v>
+      </c>
+      <c r="AA26">
+        <v>0.02486307728690334</v>
+      </c>
+      <c r="AB26">
+        <v>0.501039501039501</v>
+      </c>
+      <c r="AC26">
+        <v>8.626564643162154e-06</v>
+      </c>
+      <c r="AD26">
+        <v>0.6444444444444445</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:30">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2702,10 +3107,25 @@
         <v>0.0753570473487486</v>
       </c>
       <c r="Y27" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="Z27">
+        <v>0.009808159389691914</v>
+      </c>
+      <c r="AA27">
+        <v>0.02628221909499917</v>
+      </c>
+      <c r="AB27">
+        <v>0.501039501039501</v>
+      </c>
+      <c r="AC27">
+        <v>8.626564643162154e-06</v>
+      </c>
+      <c r="AD27">
+        <v>0.1888888888888889</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2779,10 +3199,25 @@
         <v>0.1691730944842978</v>
       </c>
       <c r="Y28" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="Z28">
+        <v>0.01377688465201898</v>
+      </c>
+      <c r="AA28">
+        <v>0.05774780347451081</v>
+      </c>
+      <c r="AB28">
+        <v>0.501039501039501</v>
+      </c>
+      <c r="AC28">
+        <v>8.626564643162154e-06</v>
+      </c>
+      <c r="AD28">
+        <v>0.5222222222222223</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2856,10 +3291,25 @@
         <v>0.2892156862745098</v>
       </c>
       <c r="Y29" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="Z29">
+        <v>0.06289788642729818</v>
+      </c>
+      <c r="AA29">
+        <v>0.0851240301819873</v>
+      </c>
+      <c r="AB29">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AC29">
+        <v>0.00267379679144385</v>
+      </c>
+      <c r="AD29">
+        <v>0.9222222222222223</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2933,10 +3383,25 @@
         <v>0.3197415329768271</v>
       </c>
       <c r="Y30" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="Z30">
+        <v>0.08021390374331551</v>
+      </c>
+      <c r="AA30">
+        <v>0.09590686665343105</v>
+      </c>
+      <c r="AB30">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AC30">
+        <v>0.00267379679144385</v>
+      </c>
+      <c r="AD30">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3010,10 +3475,25 @@
         <v>0.3522727272727272</v>
       </c>
       <c r="Y31" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="Z31">
+        <v>0.09505620429990178</v>
+      </c>
+      <c r="AA31">
+        <v>0.1029248838833119</v>
+      </c>
+      <c r="AB31">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="AC31">
+        <v>0.005941770647653</v>
+      </c>
+      <c r="AD31">
+        <v>0.06666666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3087,10 +3567,25 @@
         <v>0.02355885969950764</v>
       </c>
       <c r="Y32" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="Z32">
+        <v>0.002221218711029628</v>
+      </c>
+      <c r="AA32">
+        <v>0.0125600178892532</v>
+      </c>
+      <c r="AB32">
+        <v>0.5002839295854627</v>
+      </c>
+      <c r="AC32">
+        <v>6.445620555341776e-07</v>
+      </c>
+      <c r="AD32">
+        <v>0.5696969696969697</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:30">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3164,10 +3659,25 @@
         <v>0.03156645982670304</v>
       </c>
       <c r="Y33" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="Z33">
+        <v>0.002895663834755562</v>
+      </c>
+      <c r="AA33">
+        <v>0.01312439714205249</v>
+      </c>
+      <c r="AB33">
+        <v>0.5002839295854627</v>
+      </c>
+      <c r="AC33">
+        <v>6.445620555341776e-07</v>
+      </c>
+      <c r="AD33">
+        <v>0.1075757575757576</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3241,10 +3751,25 @@
         <v>0.04664342458178928</v>
       </c>
       <c r="Y34" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="Z34">
+        <v>0.003395202913798095</v>
+      </c>
+      <c r="AA34">
+        <v>0.02632230395999063</v>
+      </c>
+      <c r="AB34">
+        <v>0.5002839295854627</v>
+      </c>
+      <c r="AC34">
+        <v>6.445620555341776e-07</v>
+      </c>
+      <c r="AD34">
+        <v>0.5378787878787878</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:30">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3318,10 +3843,25 @@
         <v>0.2299488806627887</v>
       </c>
       <c r="Y35" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="Z35">
+        <v>0.04032747713339992</v>
+      </c>
+      <c r="AA35">
+        <v>0.0663607743658427</v>
+      </c>
+      <c r="AB35">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="AC35">
+        <v>0.0005288207297726071</v>
+      </c>
+      <c r="AD35">
+        <v>0.8603174603174604</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:30">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3395,10 +3935,25 @@
         <v>0.3320994182971972</v>
       </c>
       <c r="Y36" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="Z36">
+        <v>0.07028092785187796</v>
+      </c>
+      <c r="AA36">
+        <v>0.09661245398758912</v>
+      </c>
+      <c r="AB36">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="AC36">
+        <v>0.001057641459545214</v>
+      </c>
+      <c r="AD36">
+        <v>0.3654761904761905</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:30">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3472,10 +4027,25 @@
         <v>0.4948880662788648</v>
       </c>
       <c r="Y37" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="Z37">
+        <v>0.08611290649013195</v>
+      </c>
+      <c r="AA37">
+        <v>0.1337346472711297</v>
+      </c>
+      <c r="AB37">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="AC37">
+        <v>0.0005288207297726071</v>
+      </c>
+      <c r="AD37">
+        <v>0.1579365079365079</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:30">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3549,10 +4119,25 @@
         <v>0.1770752172610129</v>
       </c>
       <c r="Y38" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="Z38">
+        <v>0.02488682567518925</v>
+      </c>
+      <c r="AA38">
+        <v>0.05007966921721579</v>
+      </c>
+      <c r="AB38">
+        <v>0.5035460992907802</v>
+      </c>
+      <c r="AC38">
+        <v>9.989012086704625e-05</v>
+      </c>
+      <c r="AD38">
+        <v>0.6904761904761905</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:30">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3626,10 +4211,25 @@
         <v>0.1690740185795625</v>
       </c>
       <c r="Y39" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="Z39">
+        <v>0.02820329590113597</v>
+      </c>
+      <c r="AA39">
+        <v>0.04989303553226336</v>
+      </c>
+      <c r="AB39">
+        <v>0.5035460992907802</v>
+      </c>
+      <c r="AC39">
+        <v>9.989012086704625e-05</v>
+      </c>
+      <c r="AD39">
+        <v>0.2714285714285714</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:30">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3703,10 +4303,25 @@
         <v>0.3980321646189192</v>
       </c>
       <c r="Y40" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="Z40">
+        <v>0.04115827619204674</v>
+      </c>
+      <c r="AA40">
+        <v>0.09975043174118932</v>
+      </c>
+      <c r="AB40">
+        <v>0.5035460992907802</v>
+      </c>
+      <c r="AC40">
+        <v>9.989012086704625e-05</v>
+      </c>
+      <c r="AD40">
+        <v>0.5076190476190476</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:30">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3780,10 +4395,25 @@
         <v>0.4153439153439153</v>
       </c>
       <c r="Y41" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="Z41">
+        <v>0.139917695473251</v>
+      </c>
+      <c r="AA41">
+        <v>0.1175969436928606</v>
+      </c>
+      <c r="AB41">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AC41">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AD41">
+        <v>0.6088888888888889</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:30">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3857,10 +4487,25 @@
         <v>0.5114638447971781</v>
       </c>
       <c r="Y42" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="Z42">
+        <v>0.27336860670194</v>
+      </c>
+      <c r="AA42">
+        <v>0.1736338580365395</v>
+      </c>
+      <c r="AB42">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AC42">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AD42">
+        <v>0.1833333333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:30">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3934,10 +4579,25 @@
         <v>0.5114638447971781</v>
       </c>
       <c r="Y43" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="Z43">
+        <v>0.2616108171663727</v>
+      </c>
+      <c r="AA43">
+        <v>0.1642873582270665</v>
+      </c>
+      <c r="AB43">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="AC43">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="AD43">
+        <v>0.2222222222222222</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:30">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4011,10 +4671,25 @@
         <v>0.1388937409024746</v>
       </c>
       <c r="Y44" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="Z44">
+        <v>0.0159441508573377</v>
+      </c>
+      <c r="AA44">
+        <v>0.04535196823359335</v>
+      </c>
+      <c r="AB44">
+        <v>0.5021834061135372</v>
+      </c>
+      <c r="AC44">
+        <v>3.797228023542814e-05</v>
+      </c>
+      <c r="AD44">
+        <v>0.9452843368175176</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:30">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4088,10 +4763,25 @@
         <v>0.2292091059241039</v>
       </c>
       <c r="Y45" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="Z45">
+        <v>0.02713944185176308</v>
+      </c>
+      <c r="AA45">
+        <v>0.05964052616317126</v>
+      </c>
+      <c r="AB45">
+        <v>0.5021834061135372</v>
+      </c>
+      <c r="AC45">
+        <v>3.797228023542814e-05</v>
+      </c>
+      <c r="AD45">
+        <v>0.3725506232897537</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:30">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4165,10 +4855,25 @@
         <v>0.269375389299145</v>
       </c>
       <c r="Y46" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="Z46">
+        <v>0.02426827249926796</v>
+      </c>
+      <c r="AA46">
+        <v>0.06878562104432812</v>
+      </c>
+      <c r="AB46">
+        <v>0.5021834061135372</v>
+      </c>
+      <c r="AC46">
+        <v>3.797228023542814e-05</v>
+      </c>
+      <c r="AD46">
+        <v>0.7784057747276139</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:30">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4242,10 +4947,25 @@
         <v>0.09738927719691549</v>
       </c>
       <c r="Y47" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="Z47">
+        <v>0.009597453848654703</v>
+      </c>
+      <c r="AA47">
+        <v>0.03069336046720268</v>
+      </c>
+      <c r="AB47">
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="AC47">
+        <v>6.672093302552743e-06</v>
+      </c>
+      <c r="AD47">
+        <v>0.6144587056590908</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:30">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4319,10 +5039,25 @@
         <v>0.3164647158636394</v>
       </c>
       <c r="Y48" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="Z48">
+        <v>0.02431588116908474</v>
+      </c>
+      <c r="AA48">
+        <v>0.07800123981943453</v>
+      </c>
+      <c r="AB48">
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="AC48">
+        <v>6.672093302552743e-06</v>
+      </c>
+      <c r="AD48">
+        <v>0.404539549807921</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:30">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4396,10 +5131,25 @@
         <v>0.2255226941304073</v>
       </c>
       <c r="Y49" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="Z49">
+        <v>0.01625592839286149</v>
+      </c>
+      <c r="AA49">
+        <v>0.05937401233774117</v>
+      </c>
+      <c r="AB49">
+        <v>0.5009140767824497</v>
+      </c>
+      <c r="AC49">
+        <v>6.672093302552743e-06</v>
+      </c>
+      <c r="AD49">
+        <v>0.8570731312712445</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:30">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4473,10 +5223,25 @@
         <v>0.04349556717956118</v>
       </c>
       <c r="Y50" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="Z50">
+        <v>0.003667237142555366</v>
+      </c>
+      <c r="AA50">
+        <v>0.01589794374196043</v>
+      </c>
+      <c r="AB50">
+        <v>0.5002730748225014</v>
+      </c>
+      <c r="AC50">
+        <v>5.962332369025445e-07</v>
+      </c>
+      <c r="AD50">
+        <v>0.4049074603798887</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:30">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4550,10 +5315,25 @@
         <v>0.1616519711109136</v>
       </c>
       <c r="Y51" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="Z51">
+        <v>0.00985013808669497</v>
+      </c>
+      <c r="AA51">
+        <v>0.05323149368308956</v>
+      </c>
+      <c r="AB51">
+        <v>0.5002730748225014</v>
+      </c>
+      <c r="AC51">
+        <v>5.962332369025445e-07</v>
+      </c>
+      <c r="AD51">
+        <v>0.3688109807526015</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:30">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4627,10 +5407,25 @@
         <v>0.07126238169631427</v>
       </c>
       <c r="Y52" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="Z52">
+        <v>0.004753467445816698</v>
+      </c>
+      <c r="AA52">
+        <v>0.02891836890687621</v>
+      </c>
+      <c r="AB52">
+        <v>0.5002730748225014</v>
+      </c>
+      <c r="AC52">
+        <v>5.962332369025445e-07</v>
+      </c>
+      <c r="AD52">
+        <v>0.8630243698681189</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:30">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4704,10 +5499,25 @@
         <v>0.3691659138813611</v>
       </c>
       <c r="Y53" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="Z53">
+        <v>0.1081891888877737</v>
+      </c>
+      <c r="AA53">
+        <v>0.1057687458744816</v>
+      </c>
+      <c r="AB53">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="AC53">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="AD53">
+        <v>0.7068518518518518</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:30">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4781,10 +5591,25 @@
         <v>0.4720967580046171</v>
       </c>
       <c r="Y54" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="Z54">
+        <v>0.1530663454782696</v>
+      </c>
+      <c r="AA54">
+        <v>0.1389319562196028</v>
+      </c>
+      <c r="AB54">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="AC54">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="AD54">
+        <v>0.2640740740740741</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:30">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4858,10 +5683,25 @@
         <v>0.5052193114523738</v>
       </c>
       <c r="Y55" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="Z55">
+        <v>0.3409838625135223</v>
+      </c>
+      <c r="AA55">
+        <v>0.149272856231927</v>
+      </c>
+      <c r="AB55">
+        <v>0.5061728395061729</v>
+      </c>
+      <c r="AC55">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="AD55">
+        <v>0.2578571428571428</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:30">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4935,10 +5775,25 @@
         <v>0.06588929394153532</v>
       </c>
       <c r="Y56" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="Z56">
+        <v>0.005194591840562174</v>
+      </c>
+      <c r="AA56">
+        <v>0.02104065874924231</v>
+      </c>
+      <c r="AB56">
+        <v>0.5003123048094941</v>
+      </c>
+      <c r="AC56">
+        <v>7.797872896231366e-07</v>
+      </c>
+      <c r="AD56">
+        <v>0.6012764584412291</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:30">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5012,10 +5867,25 @@
         <v>0.09499060507353912</v>
       </c>
       <c r="Y57" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="Z57">
+        <v>0.00740884153182545</v>
+      </c>
+      <c r="AA57">
+        <v>0.02748439458674897</v>
+      </c>
+      <c r="AB57">
+        <v>0.5003123048094941</v>
+      </c>
+      <c r="AC57">
+        <v>7.797872896231366e-07</v>
+      </c>
+      <c r="AD57">
+        <v>0.5518401266519489</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:30">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5089,10 +5959,25 @@
         <v>0.1110685904873279</v>
       </c>
       <c r="Y58" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="Z58">
+        <v>0.006946428968183117</v>
+      </c>
+      <c r="AA58">
+        <v>0.03769765104491056</v>
+      </c>
+      <c r="AB58">
+        <v>0.5003123048094941</v>
+      </c>
+      <c r="AC58">
+        <v>7.797872896231366e-07</v>
+      </c>
+      <c r="AD58">
+        <v>1.155801880862043</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:30">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5166,10 +6051,25 @@
         <v>0.03074053034172835</v>
       </c>
       <c r="Y59" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="Z59">
+        <v>0.002186290772181282</v>
+      </c>
+      <c r="AA59">
+        <v>0.01175528784368755</v>
+      </c>
+      <c r="AB59">
+        <v>0.5001016053647632</v>
+      </c>
+      <c r="AC59">
+        <v>8.257242158737058e-08</v>
+      </c>
+      <c r="AD59">
+        <v>0.3410963593128488</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:30">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5243,10 +6143,25 @@
         <v>0.06048279091196349</v>
       </c>
       <c r="Y60" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="Z60">
+        <v>0.003735509310501713</v>
+      </c>
+      <c r="AA60">
+        <v>0.02712107977261985</v>
+      </c>
+      <c r="AB60">
+        <v>0.5001016053647632</v>
+      </c>
+      <c r="AC60">
+        <v>8.257242158737058e-08</v>
+      </c>
+      <c r="AD60">
+        <v>0.5811480920844089</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:30">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5320,10 +6235,25 @@
         <v>0.04432669579437659</v>
       </c>
       <c r="Y61" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="Z61">
+        <v>0.002617938364028756</v>
+      </c>
+      <c r="AA61">
+        <v>0.02002859507849507</v>
+      </c>
+      <c r="AB61">
+        <v>0.5001016053647632</v>
+      </c>
+      <c r="AC61">
+        <v>8.257242158737058e-08</v>
+      </c>
+      <c r="AD61">
+        <v>1.208281508054745</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:30">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5397,10 +6327,25 @@
         <v>0.3308613062711424</v>
       </c>
       <c r="Y62" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="Z62">
+        <v>0.06579031751623894</v>
+      </c>
+      <c r="AA62">
+        <v>0.09266968271921154</v>
+      </c>
+      <c r="AB62">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="AC62">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="AD62">
+        <v>0.5201670551670552</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:30">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5474,10 +6419,25 @@
         <v>0.5015010456722661</v>
       </c>
       <c r="Y63" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="Z63">
+        <v>0.2346878349711784</v>
+      </c>
+      <c r="AA63">
+        <v>0.1716555835943577</v>
+      </c>
+      <c r="AB63">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="AC63">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="AD63">
+        <v>0.2415079365079365</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:30">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5551,7 +6511,22 @@
         <v>0.4951908713293049</v>
       </c>
       <c r="Y64" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="Z64">
+        <v>0.09840563088893386</v>
+      </c>
+      <c r="AA64">
+        <v>0.1578589305019904</v>
+      </c>
+      <c r="AB64">
+        <v>0.5020576131687243</v>
+      </c>
+      <c r="AC64">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="AD64">
+        <v>0.4724752692329625</v>
       </c>
     </row>
   </sheetData>
